--- a/Finflux Automation Excels/Client/5044-CompondingPenalityCharge-MoraoriumOnPrinciple2-UndoDisburse.xlsx
+++ b/Finflux Automation Excels/Client/5044-CompondingPenalityCharge-MoraoriumOnPrinciple2-UndoDisburse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +222,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -260,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -286,6 +293,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -671,7 +679,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +792,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1009,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,13 +1417,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="11"/>
+    <col min="3" max="3" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1444,7 +1454,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>3877</v>
+        <v>377</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>37</v>
@@ -1468,7 +1478,7 @@
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>3876</v>
+        <v>376</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>37</v>
@@ -1492,7 +1502,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>3875</v>
+        <v>375</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>37</v>
@@ -1516,7 +1526,7 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>3874</v>
+        <v>374</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>37</v>
@@ -1540,7 +1550,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>3873</v>
+        <v>373</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>37</v>
@@ -1564,7 +1574,7 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>3872</v>
+        <v>372</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>37</v>
@@ -1588,7 +1598,7 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>3871</v>
+        <v>371</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>37</v>
@@ -1612,7 +1622,7 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>3870</v>
+        <v>370</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>37</v>
@@ -1636,7 +1646,7 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>3869</v>
+        <v>369</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>37</v>
@@ -1660,7 +1670,7 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>3868</v>
+        <v>368</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>37</v>
@@ -1684,7 +1694,7 @@
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>3867</v>
+        <v>367</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>37</v>
@@ -1708,7 +1718,7 @@
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>3866</v>
+        <v>366</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>37</v>
@@ -1732,7 +1742,7 @@
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>3865</v>
+        <v>365</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>37</v>
@@ -1763,13 +1773,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1818,7 +1828,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>47</v>
       </c>
@@ -1851,7 +1861,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/40/waivecharge/204" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/40/waivecharge/204"/>
+    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/10/waivecharge/57" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/10/waivecharge/57"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
